--- a/Data/Excel/三调用地名称_to_用地用海用地名称.xlsx
+++ b/Data/Excel/三调用地名称_to_用地用海用地名称.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="通用" sheetId="1" r:id="rId1"/>
+    <sheet name="全部转一级类" sheetId="2" r:id="rId2"/>
+    <sheet name="待细分转一级类" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
   <si>
     <t>采矿用地</t>
   </si>
@@ -253,13 +255,137 @@
   <si>
     <t>物流仓储用地</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>园地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>工矿用地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住用地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共管理与公共服务用地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用设施用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地与开敞空间用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业设施建设用地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆地水域</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他土地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整乔木林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整养殖坑塘</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整橡胶园</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶园</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整其他园地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他园地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔木林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整竹林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整其他林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调整人工牧草地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工牧草地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟渠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +461,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -362,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,6 +540,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,32 +1356,60 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="68" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
@@ -1387,4 +1556,1137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>